--- a/Modules/CVMod4/CVMod4_BOM.xlsx
+++ b/Modules/CVMod4/CVMod4_BOM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\CVMod4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AECC7-A3E6-4F1A-83DC-A59E343925C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B172294-EE9E-4E69-BECA-2154CB3FD366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CVMod8 V2" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,9 +83,6 @@
     <t>LED Red/Green</t>
   </si>
   <si>
-    <t>LED 3mm Flat Bicolor</t>
-  </si>
-  <si>
     <t>L-937EGW</t>
   </si>
   <si>
@@ -672,6 +669,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/de/en/details/smd0603-100k-1%25/smd-resistors/royalohm/0603saf1003t5e/</t>
+  </si>
+  <si>
+    <t>LED 3mm Dome Bicolor</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1580,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,11 +1600,11 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1615,19 +1615,19 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1638,19 +1638,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4" s="3"/>
     </row>
@@ -1662,19 +1662,19 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1685,19 +1685,19 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1705,22 +1705,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,19 +1731,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,22 +1751,22 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,22 +1774,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1800,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1817,22 +1817,22 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
         <v>62</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1840,22 +1840,22 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,22 +1863,22 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,22 +1886,22 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1909,22 +1909,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1932,10 +1932,10 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1944,10 +1944,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1955,19 +1955,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1975,19 +1975,19 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1995,19 +1995,19 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2018,19 +2018,19 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,19 +2038,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,19 +2058,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2078,24 +2078,24 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2103,32 +2103,32 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
